--- a/biology/Botanique/Callitriche_des_eaux_stagnantes/Callitriche_des_eaux_stagnantes.xlsx
+++ b/biology/Botanique/Callitriche_des_eaux_stagnantes/Callitriche_des_eaux_stagnantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callitriche stagnalis, le Callitriche des étangs, Callitriche des marais ou Callitriche des eaux stagnantes, est une espèce du genre Callitriche de la famille des Callitrichaceae selon la classification classique ou de la famille des Plantaginaceae selon la classification APG II (2003).
 </t>
@@ -511,7 +523,9 @@
           <t>Espèce dépolluante</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a fait l'objet de tests scientifiques ayant mis en lumière sa capacité à réduire très sensiblement la teneur en uranium d'un cours d'eau.[réf. nécessaire]
 Sur les autres projets Wikimedia :
